--- a/Python Scripts/sample_opprcd.xlsx
+++ b/Python Scripts/sample_opprcd.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\GitHub\DFMBA2023\Python Scripts\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF6FE5C-65E6-4696-B106-93273253663E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="270" windowWidth="11100" windowHeight="5325"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sample_opprcd" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="sample_opprcd">'sample_opprcd'!$A$1:$Z$65</definedName>
+    <definedName name="sample_opprcd">sample_opprcd!$A$1:$Z$65</definedName>
   </definedNames>
-  <calcPr fullCalcOnLoad="true"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="63">
   <si>
     <t>secid</t>
   </si>
@@ -211,16 +217,20 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
-  </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -244,23 +254,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -268,14 +267,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -283,39 +285,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -350,7 +352,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -385,7 +387,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -394,176 +396,190 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z65"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="5" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="8" max="11" width="13" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
     <col min="13" max="13" width="16" customWidth="1"/>
-    <col min="14" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="13" customWidth="1"/>
-    <col min="16" max="16" width="13" customWidth="1"/>
-    <col min="17" max="17" width="13" customWidth="1"/>
-    <col min="18" max="18" width="13" customWidth="1"/>
-    <col min="19" max="19" width="13" customWidth="1"/>
-    <col min="20" max="20" width="14" customWidth="1"/>
-    <col min="21" max="21" width="14" customWidth="1"/>
+    <col min="14" max="19" width="13" customWidth="1"/>
+    <col min="20" max="21" width="14" customWidth="1"/>
     <col min="22" max="22" width="8" customWidth="1"/>
     <col min="23" max="23" width="14" customWidth="1"/>
     <col min="24" max="24" width="17" customWidth="1"/>
@@ -571,7 +587,7 @@
     <col min="26" max="26" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -651,11 +667,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>5139</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="1">
         <v>43622</v>
       </c>
       <c r="C2" t="s">
@@ -664,7 +680,7 @@
       <c r="D2" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="1">
         <v>43637</v>
       </c>
       <c r="G2" t="s">
@@ -686,19 +702,19 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>.640809</v>
+        <v>0.64080899999999996</v>
       </c>
       <c r="N2">
-        <v>.875411</v>
+        <v>0.87541100000000005</v>
       </c>
       <c r="O2">
-        <v>.067456</v>
+        <v>6.7456000000000002E-2</v>
       </c>
       <c r="P2">
-        <v>1.008469</v>
+        <v>1.0084690000000001</v>
       </c>
       <c r="Q2">
-        <v>-9.681341</v>
+        <v>-9.6813409999999998</v>
       </c>
       <c r="R2">
         <v>129252235</v>
@@ -716,7 +732,7 @@
         <v>29</v>
       </c>
       <c r="W2">
-        <v>25.725592</v>
+        <v>25.725591999999999</v>
       </c>
       <c r="X2" t="s">
         <v>30</v>
@@ -728,11 +744,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>5139</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="1">
         <v>43622</v>
       </c>
       <c r="C3" t="s">
@@ -741,7 +757,7 @@
       <c r="D3" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="1">
         <v>43637</v>
       </c>
       <c r="G3" t="s">
@@ -790,11 +806,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>5139</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="1">
         <v>43622</v>
       </c>
       <c r="C4" t="s">
@@ -803,7 +819,7 @@
       <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="1">
         <v>43637</v>
       </c>
       <c r="G4" t="s">
@@ -852,11 +868,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5139</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="1">
         <v>43622</v>
       </c>
       <c r="C5" t="s">
@@ -865,7 +881,7 @@
       <c r="D5" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="1">
         <v>43637</v>
       </c>
       <c r="G5" t="s">
@@ -914,11 +930,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5139</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="1">
         <v>43622</v>
       </c>
       <c r="C6" t="s">
@@ -927,7 +943,7 @@
       <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="1">
         <v>43637</v>
       </c>
       <c r="G6" t="s">
@@ -976,11 +992,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5139</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="1">
         <v>43622</v>
       </c>
       <c r="C7" t="s">
@@ -989,7 +1005,7 @@
       <c r="D7" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="1">
         <v>43637</v>
       </c>
       <c r="G7" t="s">
@@ -1038,11 +1054,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5139</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="1">
         <v>43622</v>
       </c>
       <c r="C8" t="s">
@@ -1051,7 +1067,7 @@
       <c r="D8" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="1">
         <v>43665</v>
       </c>
       <c r="G8" t="s">
@@ -1073,19 +1089,19 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>.375951</v>
+        <v>0.37595099999999998</v>
       </c>
       <c r="N8">
-        <v>.867894</v>
+        <v>0.86789400000000005</v>
       </c>
       <c r="O8">
-        <v>.067705</v>
+        <v>6.7705000000000001E-2</v>
       </c>
       <c r="P8">
-        <v>1.844326</v>
+        <v>1.8443259999999999</v>
       </c>
       <c r="Q8">
-        <v>-3.648823</v>
+        <v>-3.6488230000000001</v>
       </c>
       <c r="R8">
         <v>129252241</v>
@@ -1103,7 +1119,7 @@
         <v>29</v>
       </c>
       <c r="W8">
-        <v>25.774465</v>
+        <v>25.774464999999999</v>
       </c>
       <c r="X8" t="s">
         <v>30</v>
@@ -1115,11 +1131,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5139</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="1">
         <v>43622</v>
       </c>
       <c r="C9" t="s">
@@ -1128,7 +1144,7 @@
       <c r="D9" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="1">
         <v>43665</v>
       </c>
       <c r="G9" t="s">
@@ -1177,11 +1193,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>5139</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="1">
         <v>43622</v>
       </c>
       <c r="C10" t="s">
@@ -1190,7 +1206,7 @@
       <c r="D10" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="1">
         <v>43665</v>
       </c>
       <c r="G10" t="s">
@@ -1239,11 +1255,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>5139</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="1">
         <v>43622</v>
       </c>
       <c r="C11" t="s">
@@ -1252,7 +1268,7 @@
       <c r="D11" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="1">
         <v>43665</v>
       </c>
       <c r="G11" t="s">
@@ -1265,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1274,19 +1290,19 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>.397328</v>
+        <v>0.39732800000000001</v>
       </c>
       <c r="N11">
-        <v>-.143456</v>
+        <v>-0.143456</v>
       </c>
       <c r="O11">
-        <v>.064338</v>
+        <v>6.4338000000000006E-2</v>
       </c>
       <c r="P11">
-        <v>1.999526</v>
+        <v>1.9995259999999999</v>
       </c>
       <c r="Q11">
-        <v>-3.28277</v>
+        <v>-3.2827700000000002</v>
       </c>
       <c r="R11">
         <v>129252244</v>
@@ -1304,7 +1320,7 @@
         <v>29</v>
       </c>
       <c r="W11">
-        <v>25.774465</v>
+        <v>25.774464999999999</v>
       </c>
       <c r="X11" t="s">
         <v>30</v>
@@ -1316,11 +1332,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>5139</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="1">
         <v>43622</v>
       </c>
       <c r="C12" t="s">
@@ -1329,7 +1345,7 @@
       <c r="D12" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="1">
         <v>43665</v>
       </c>
       <c r="G12" t="s">
@@ -1378,11 +1394,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>5139</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="1">
         <v>43622</v>
       </c>
       <c r="C13" t="s">
@@ -1391,7 +1407,7 @@
       <c r="D13" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="1">
         <v>43665</v>
       </c>
       <c r="G13" t="s">
@@ -1440,11 +1456,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>5139</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="1">
         <v>43622</v>
       </c>
       <c r="C14" t="s">
@@ -1453,7 +1469,7 @@
       <c r="D14" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="1">
         <v>43728</v>
       </c>
       <c r="G14" t="s">
@@ -1475,19 +1491,19 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>.361672</v>
+        <v>0.36167199999999999</v>
       </c>
       <c r="N14">
-        <v>.789292</v>
+        <v>0.78929199999999999</v>
       </c>
       <c r="O14">
-        <v>.056702</v>
+        <v>5.6702000000000002E-2</v>
       </c>
       <c r="P14">
-        <v>3.96458</v>
+        <v>3.9645800000000002</v>
       </c>
       <c r="Q14">
-        <v>-2.855443</v>
+        <v>-2.8554430000000002</v>
       </c>
       <c r="R14">
         <v>129252247</v>
@@ -1505,7 +1521,7 @@
         <v>29</v>
       </c>
       <c r="W14">
-        <v>25.877071</v>
+        <v>25.877071000000001</v>
       </c>
       <c r="X14" t="s">
         <v>30</v>
@@ -1517,11 +1533,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>5139</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="1">
         <v>43622</v>
       </c>
       <c r="C15" t="s">
@@ -1530,7 +1546,7 @@
       <c r="D15" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="1">
         <v>43728</v>
       </c>
       <c r="G15" t="s">
@@ -1579,11 +1595,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>5139</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="1">
         <v>43622</v>
       </c>
       <c r="C16" t="s">
@@ -1592,7 +1608,7 @@
       <c r="D16" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="1">
         <v>43728</v>
       </c>
       <c r="G16" t="s">
@@ -1641,11 +1657,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>5139</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="1">
         <v>43622</v>
       </c>
       <c r="C17" t="s">
@@ -1654,7 +1670,7 @@
       <c r="D17" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="1">
         <v>43728</v>
       </c>
       <c r="G17" t="s">
@@ -1703,11 +1719,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>5139</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="1">
         <v>43622</v>
       </c>
       <c r="C18" t="s">
@@ -1716,7 +1732,7 @@
       <c r="D18" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="1">
         <v>43728</v>
       </c>
       <c r="G18" t="s">
@@ -1765,11 +1781,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>5139</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="1">
         <v>43622</v>
       </c>
       <c r="C19" t="s">
@@ -1778,7 +1794,7 @@
       <c r="D19" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="1">
         <v>43728</v>
       </c>
       <c r="G19" t="s">
@@ -1827,11 +1843,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>5139</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="1">
         <v>43622</v>
       </c>
       <c r="C20" t="s">
@@ -1840,7 +1856,7 @@
       <c r="D20" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="1">
         <v>43819</v>
       </c>
       <c r="G20" t="s">
@@ -1862,19 +1878,19 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>.339189</v>
+        <v>0.33918900000000002</v>
       </c>
       <c r="N20">
-        <v>.757088</v>
+        <v>0.75708799999999998</v>
       </c>
       <c r="O20">
-        <v>.04815</v>
+        <v>4.8149999999999998E-2</v>
       </c>
       <c r="P20">
-        <v>5.867824</v>
+        <v>5.8678239999999997</v>
       </c>
       <c r="Q20">
-        <v>-2.180013</v>
+        <v>-2.1800130000000002</v>
       </c>
       <c r="R20">
         <v>129252253</v>
@@ -1892,7 +1908,7 @@
         <v>29</v>
       </c>
       <c r="W20">
-        <v>26.012196</v>
+        <v>26.012195999999999</v>
       </c>
       <c r="X20" t="s">
         <v>30</v>
@@ -1904,11 +1920,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>5139</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="1">
         <v>43622</v>
       </c>
       <c r="C21" t="s">
@@ -1917,7 +1933,7 @@
       <c r="D21" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="1">
         <v>43819</v>
       </c>
       <c r="G21" t="s">
@@ -1927,7 +1943,7 @@
         <v>25000</v>
       </c>
       <c r="I21">
-        <v>2.05</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="J21">
         <v>2.6</v>
@@ -1939,19 +1955,19 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>.24141</v>
+        <v>0.24141000000000001</v>
       </c>
       <c r="N21">
-        <v>.620195</v>
+        <v>0.62019500000000005</v>
       </c>
       <c r="O21">
-        <v>.082688</v>
+        <v>8.2687999999999998E-2</v>
       </c>
       <c r="P21">
-        <v>7.173208</v>
+        <v>7.1732079999999998</v>
       </c>
       <c r="Q21">
-        <v>-1.909801</v>
+        <v>-1.9098010000000001</v>
       </c>
       <c r="R21">
         <v>129252254</v>
@@ -1969,7 +1985,7 @@
         <v>29</v>
       </c>
       <c r="W21">
-        <v>26.012196</v>
+        <v>26.012195999999999</v>
       </c>
       <c r="X21" t="s">
         <v>30</v>
@@ -1981,11 +1997,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>5139</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="1">
         <v>43622</v>
       </c>
       <c r="C22" t="s">
@@ -1994,7 +2010,7 @@
       <c r="D22" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="1">
         <v>43819</v>
       </c>
       <c r="G22" t="s">
@@ -2043,11 +2059,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>5139</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="1">
         <v>43622</v>
       </c>
       <c r="C23" t="s">
@@ -2056,7 +2072,7 @@
       <c r="D23" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="1">
         <v>43819</v>
       </c>
       <c r="G23" t="s">
@@ -2105,11 +2121,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>5139</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="1">
         <v>43622</v>
       </c>
       <c r="C24" t="s">
@@ -2118,7 +2134,7 @@
       <c r="D24" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="1">
         <v>43819</v>
       </c>
       <c r="G24" t="s">
@@ -2167,11 +2183,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>5139</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="1">
         <v>43622</v>
       </c>
       <c r="C25" t="s">
@@ -2180,7 +2196,7 @@
       <c r="D25" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="1">
         <v>43819</v>
       </c>
       <c r="G25" t="s">
@@ -2190,7 +2206,7 @@
         <v>27500</v>
       </c>
       <c r="I25">
-        <v>.5</v>
+        <v>0.5</v>
       </c>
       <c r="J25">
         <v>5.5</v>
@@ -2202,13 +2218,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>.276871</v>
+        <v>0.27687099999999998</v>
       </c>
       <c r="N25">
-        <v>-.578471</v>
+        <v>-0.57847099999999996</v>
       </c>
       <c r="O25">
-        <v>.077899</v>
+        <v>7.7898999999999996E-2</v>
       </c>
       <c r="P25">
         <v>7.32186</v>
@@ -2232,7 +2248,7 @@
         <v>29</v>
       </c>
       <c r="W25">
-        <v>26.012196</v>
+        <v>26.012195999999999</v>
       </c>
       <c r="X25" t="s">
         <v>30</v>
@@ -2244,11 +2260,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>5139</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="1">
         <v>43623</v>
       </c>
       <c r="C26" t="s">
@@ -2257,7 +2273,7 @@
       <c r="D26" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="1">
         <v>43637</v>
       </c>
       <c r="G26" t="s">
@@ -2267,7 +2283,7 @@
         <v>22500</v>
       </c>
       <c r="I26">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="J26">
         <v>5.8</v>
@@ -2282,16 +2298,16 @@
         <v>1.03783</v>
       </c>
       <c r="N26">
-        <v>.784712</v>
+        <v>0.78471199999999997</v>
       </c>
       <c r="O26">
-        <v>.057689</v>
+        <v>5.7688999999999997E-2</v>
       </c>
       <c r="P26">
-        <v>1.460452</v>
+        <v>1.4604520000000001</v>
       </c>
       <c r="Q26">
-        <v>-21.21798</v>
+        <v>-21.217980000000001</v>
       </c>
       <c r="R26">
         <v>129252235</v>
@@ -2309,7 +2325,7 @@
         <v>29</v>
       </c>
       <c r="W26">
-        <v>25.813926</v>
+        <v>25.813925999999999</v>
       </c>
       <c r="X26" t="s">
         <v>30</v>
@@ -2321,11 +2337,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>5139</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="1">
         <v>43623</v>
       </c>
       <c r="C27" t="s">
@@ -2334,7 +2350,7 @@
       <c r="D27" t="s">
         <v>27</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="1">
         <v>43637</v>
       </c>
       <c r="G27" t="s">
@@ -2356,19 +2372,19 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>.26334</v>
+        <v>0.26334000000000002</v>
       </c>
       <c r="N27">
-        <v>.769878</v>
+        <v>0.76987799999999995</v>
       </c>
       <c r="O27">
-        <v>.261959</v>
+        <v>0.261959</v>
       </c>
       <c r="P27">
         <v>1.458923</v>
       </c>
       <c r="Q27">
-        <v>-6.544859</v>
+        <v>-6.5448589999999998</v>
       </c>
       <c r="R27">
         <v>129252236</v>
@@ -2386,7 +2402,7 @@
         <v>29</v>
       </c>
       <c r="W27">
-        <v>25.813926</v>
+        <v>25.813925999999999</v>
       </c>
       <c r="X27" t="s">
         <v>30</v>
@@ -2398,11 +2414,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>5139</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="1">
         <v>43623</v>
       </c>
       <c r="C28" t="s">
@@ -2411,7 +2427,7 @@
       <c r="D28" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="1">
         <v>43637</v>
       </c>
       <c r="G28" t="s">
@@ -2424,7 +2440,7 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2433,13 +2449,13 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>.701224</v>
+        <v>0.70122399999999996</v>
       </c>
       <c r="N28">
-        <v>-.142111</v>
+        <v>-0.14211099999999999</v>
       </c>
       <c r="O28">
-        <v>.063185</v>
+        <v>6.3185000000000005E-2</v>
       </c>
       <c r="P28">
         <v>1.138352</v>
@@ -2463,7 +2479,7 @@
         <v>29</v>
       </c>
       <c r="W28">
-        <v>25.813926</v>
+        <v>25.813925999999999</v>
       </c>
       <c r="X28" t="s">
         <v>30</v>
@@ -2475,11 +2491,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>5139</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="1">
         <v>43623</v>
       </c>
       <c r="C29" t="s">
@@ -2488,7 +2504,7 @@
       <c r="D29" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="1">
         <v>43637</v>
       </c>
       <c r="G29" t="s">
@@ -2501,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>.75</v>
+        <v>0.75</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -2510,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>.35705</v>
+        <v>0.35704999999999998</v>
       </c>
       <c r="N29">
-        <v>-.310428</v>
+        <v>-0.31042799999999998</v>
       </c>
       <c r="O29">
-        <v>.194859</v>
+        <v>0.194859</v>
       </c>
       <c r="P29">
         <v>1.786103</v>
       </c>
       <c r="Q29">
-        <v>-8.122158</v>
+        <v>-8.1221580000000007</v>
       </c>
       <c r="R29">
         <v>129252239</v>
@@ -2540,7 +2556,7 @@
         <v>29</v>
       </c>
       <c r="W29">
-        <v>25.813926</v>
+        <v>25.813925999999999</v>
       </c>
       <c r="X29" t="s">
         <v>30</v>
@@ -2552,11 +2568,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>5139</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="1">
         <v>43623</v>
       </c>
       <c r="C30" t="s">
@@ -2565,7 +2581,7 @@
       <c r="D30" t="s">
         <v>27</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="1">
         <v>43665</v>
       </c>
       <c r="G30" t="s">
@@ -2575,7 +2591,7 @@
         <v>22500</v>
       </c>
       <c r="I30">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="J30">
         <v>6</v>
@@ -2587,19 +2603,19 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>.611972</v>
+        <v>0.61197199999999996</v>
       </c>
       <c r="N30">
-        <v>.777761</v>
+        <v>0.77776100000000004</v>
       </c>
       <c r="O30">
-        <v>.054952</v>
+        <v>5.4952000000000001E-2</v>
       </c>
       <c r="P30">
-        <v>2.586082</v>
+        <v>2.5860820000000002</v>
       </c>
       <c r="Q30">
-        <v>-7.287414</v>
+        <v>-7.2874140000000001</v>
       </c>
       <c r="R30">
         <v>129252241</v>
@@ -2617,7 +2633,7 @@
         <v>29</v>
       </c>
       <c r="W30">
-        <v>25.862288</v>
+        <v>25.862287999999999</v>
       </c>
       <c r="X30" t="s">
         <v>30</v>
@@ -2629,11 +2645,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>5139</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="1">
         <v>43623</v>
       </c>
       <c r="C31" t="s">
@@ -2642,7 +2658,7 @@
       <c r="D31" t="s">
         <v>27</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="1">
         <v>43665</v>
       </c>
       <c r="G31" t="s">
@@ -2652,7 +2668,7 @@
         <v>25000</v>
       </c>
       <c r="I31">
-        <v>.6</v>
+        <v>0.6</v>
       </c>
       <c r="J31">
         <v>2.35</v>
@@ -2664,19 +2680,19 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>.287433</v>
+        <v>0.28743299999999999</v>
       </c>
       <c r="N31">
-        <v>.651606</v>
+        <v>0.65160600000000002</v>
       </c>
       <c r="O31">
-        <v>.145692</v>
+        <v>0.14569199999999999</v>
       </c>
       <c r="P31">
-        <v>3.225254</v>
+        <v>3.2252540000000001</v>
       </c>
       <c r="Q31">
-        <v>-4.408566</v>
+        <v>-4.4085660000000004</v>
       </c>
       <c r="R31">
         <v>129252242</v>
@@ -2694,7 +2710,7 @@
         <v>29</v>
       </c>
       <c r="W31">
-        <v>25.862288</v>
+        <v>25.862287999999999</v>
       </c>
       <c r="X31" t="s">
         <v>30</v>
@@ -2706,11 +2722,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>5139</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="1">
         <v>43623</v>
       </c>
       <c r="C32" t="s">
@@ -2719,7 +2735,7 @@
       <c r="D32" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="1">
         <v>43665</v>
       </c>
       <c r="G32" t="s">
@@ -2732,7 +2748,7 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>.5</v>
+        <v>0.5</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -2741,19 +2757,19 @@
         <v>0</v>
       </c>
       <c r="M32">
-        <v>.395428</v>
+        <v>0.395428</v>
       </c>
       <c r="N32">
-        <v>-.134395</v>
+        <v>-0.13439499999999999</v>
       </c>
       <c r="O32">
-        <v>.062349</v>
+        <v>6.2349000000000002E-2</v>
       </c>
       <c r="P32">
         <v>1.898841</v>
       </c>
       <c r="Q32">
-        <v>-3.176648</v>
+        <v>-3.1766480000000001</v>
       </c>
       <c r="R32">
         <v>129252244</v>
@@ -2771,7 +2787,7 @@
         <v>29</v>
       </c>
       <c r="W32">
-        <v>25.862288</v>
+        <v>25.862287999999999</v>
       </c>
       <c r="X32" t="s">
         <v>30</v>
@@ -2783,11 +2799,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>5139</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="1">
         <v>43623</v>
       </c>
       <c r="C33" t="s">
@@ -2796,7 +2812,7 @@
       <c r="D33" t="s">
         <v>27</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="1">
         <v>43665</v>
       </c>
       <c r="G33" t="s">
@@ -2806,10 +2822,10 @@
         <v>25000</v>
       </c>
       <c r="I33">
-        <v>.1</v>
+        <v>0.1</v>
       </c>
       <c r="J33">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -2818,19 +2834,19 @@
         <v>0</v>
       </c>
       <c r="M33">
-        <v>.281964</v>
+        <v>0.28196399999999999</v>
       </c>
       <c r="N33">
-        <v>-.344303</v>
+        <v>-0.34430300000000003</v>
       </c>
       <c r="O33">
-        <v>.14917</v>
+        <v>0.14917</v>
       </c>
       <c r="P33">
-        <v>3.222884</v>
+        <v>3.2228840000000001</v>
       </c>
       <c r="Q33">
-        <v>-3.743265</v>
+        <v>-3.7432650000000001</v>
       </c>
       <c r="R33">
         <v>129252245</v>
@@ -2848,7 +2864,7 @@
         <v>29</v>
       </c>
       <c r="W33">
-        <v>25.862288</v>
+        <v>25.862287999999999</v>
       </c>
       <c r="X33" t="s">
         <v>30</v>
@@ -2860,11 +2876,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>5139</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="1">
         <v>43623</v>
       </c>
       <c r="C34" t="s">
@@ -2873,7 +2889,7 @@
       <c r="D34" t="s">
         <v>27</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="1">
         <v>43728</v>
       </c>
       <c r="G34" t="s">
@@ -2895,13 +2911,13 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>.258367</v>
+        <v>0.25836700000000001</v>
       </c>
       <c r="N34">
-        <v>.861475</v>
+        <v>0.86147499999999999</v>
       </c>
       <c r="O34">
-        <v>.06034</v>
+        <v>6.0339999999999998E-2</v>
       </c>
       <c r="P34">
         <v>3.00488</v>
@@ -2925,7 +2941,7 @@
         <v>29</v>
       </c>
       <c r="W34">
-        <v>25.963426</v>
+        <v>25.963425999999998</v>
       </c>
       <c r="X34" t="s">
         <v>30</v>
@@ -2937,11 +2953,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>5139</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="1">
         <v>43623</v>
       </c>
       <c r="C35" t="s">
@@ -2950,7 +2966,7 @@
       <c r="D35" t="s">
         <v>27</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="1">
         <v>43728</v>
       </c>
       <c r="G35" t="s">
@@ -2972,19 +2988,19 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>.295984</v>
+        <v>0.29598400000000002</v>
       </c>
       <c r="N35">
-        <v>.622127</v>
+        <v>0.62212699999999999</v>
       </c>
       <c r="O35">
-        <v>.091911</v>
+        <v>9.1911000000000007E-2</v>
       </c>
       <c r="P35">
-        <v>5.247105</v>
+        <v>5.2471050000000004</v>
       </c>
       <c r="Q35">
-        <v>-3.024332</v>
+        <v>-3.0243319999999998</v>
       </c>
       <c r="R35">
         <v>129252248</v>
@@ -3002,7 +3018,7 @@
         <v>29</v>
       </c>
       <c r="W35">
-        <v>25.963426</v>
+        <v>25.963425999999998</v>
       </c>
       <c r="X35" t="s">
         <v>30</v>
@@ -3014,11 +3030,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>5139</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="1">
         <v>43623</v>
       </c>
       <c r="C36" t="s">
@@ -3027,7 +3043,7 @@
       <c r="D36" t="s">
         <v>27</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="1">
         <v>43728</v>
       </c>
       <c r="G36" t="s">
@@ -3049,19 +3065,19 @@
         <v>0</v>
       </c>
       <c r="M36">
-        <v>.335579</v>
+        <v>0.33557900000000002</v>
       </c>
       <c r="N36">
-        <v>-.188479</v>
+        <v>-0.18847900000000001</v>
       </c>
       <c r="O36">
-        <v>.058117</v>
+        <v>5.8117000000000002E-2</v>
       </c>
       <c r="P36">
-        <v>3.737823</v>
+        <v>3.7378230000000001</v>
       </c>
       <c r="Q36">
-        <v>-2.067535</v>
+        <v>-2.0675349999999999</v>
       </c>
       <c r="R36">
         <v>129252250</v>
@@ -3079,7 +3095,7 @@
         <v>29</v>
       </c>
       <c r="W36">
-        <v>25.963426</v>
+        <v>25.963425999999998</v>
       </c>
       <c r="X36" t="s">
         <v>30</v>
@@ -3091,11 +3107,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>5139</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="1">
         <v>43623</v>
       </c>
       <c r="C37" t="s">
@@ -3104,7 +3120,7 @@
       <c r="D37" t="s">
         <v>27</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="1">
         <v>43728</v>
       </c>
       <c r="G37" t="s">
@@ -3114,7 +3130,7 @@
         <v>25000</v>
       </c>
       <c r="I37">
-        <v>.35</v>
+        <v>0.35</v>
       </c>
       <c r="J37">
         <v>1.85</v>
@@ -3126,19 +3142,19 @@
         <v>0</v>
       </c>
       <c r="M37">
-        <v>.281382</v>
+        <v>0.28138200000000002</v>
       </c>
       <c r="N37">
-        <v>-.374631</v>
+        <v>-0.37463099999999999</v>
       </c>
       <c r="O37">
-        <v>.097969</v>
+        <v>9.7969000000000001E-2</v>
       </c>
       <c r="P37">
-        <v>5.241167</v>
+        <v>5.2411669999999999</v>
       </c>
       <c r="Q37">
-        <v>-2.348062</v>
+        <v>-2.3480620000000001</v>
       </c>
       <c r="R37">
         <v>129252251</v>
@@ -3156,7 +3172,7 @@
         <v>29</v>
       </c>
       <c r="W37">
-        <v>25.963426</v>
+        <v>25.963425999999998</v>
       </c>
       <c r="X37" t="s">
         <v>30</v>
@@ -3168,11 +3184,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>5139</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="1">
         <v>43623</v>
       </c>
       <c r="C38" t="s">
@@ -3181,7 +3197,7 @@
       <c r="D38" t="s">
         <v>27</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="1">
         <v>43819</v>
       </c>
       <c r="G38" t="s">
@@ -3203,19 +3219,19 @@
         <v>0</v>
       </c>
       <c r="M38">
-        <v>.224865</v>
+        <v>0.22486500000000001</v>
       </c>
       <c r="N38">
-        <v>.83372</v>
+        <v>0.83372000000000002</v>
       </c>
       <c r="O38">
-        <v>.057506</v>
+        <v>5.7506000000000002E-2</v>
       </c>
       <c r="P38">
         <v>4.655367</v>
       </c>
       <c r="Q38">
-        <v>-1.362774</v>
+        <v>-1.3627739999999999</v>
       </c>
       <c r="R38">
         <v>129252253</v>
@@ -3233,7 +3249,7 @@
         <v>29</v>
       </c>
       <c r="W38">
-        <v>26.096707</v>
+        <v>26.096706999999999</v>
       </c>
       <c r="X38" t="s">
         <v>30</v>
@@ -3245,11 +3261,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>5139</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="1">
         <v>43623</v>
       </c>
       <c r="C39" t="s">
@@ -3258,7 +3274,7 @@
       <c r="D39" t="s">
         <v>27</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="1">
         <v>43819</v>
       </c>
       <c r="G39" t="s">
@@ -3280,19 +3296,19 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>.24862</v>
+        <v>0.24862000000000001</v>
       </c>
       <c r="N39">
-        <v>.625594</v>
+        <v>0.62559399999999998</v>
       </c>
       <c r="O39">
-        <v>.07985</v>
+        <v>7.9850000000000004E-2</v>
       </c>
       <c r="P39">
-        <v>7.147382</v>
+        <v>7.1473820000000003</v>
       </c>
       <c r="Q39">
-        <v>-1.957386</v>
+        <v>-1.9573860000000001</v>
       </c>
       <c r="R39">
         <v>129252254</v>
@@ -3310,7 +3326,7 @@
         <v>29</v>
       </c>
       <c r="W39">
-        <v>26.096707</v>
+        <v>26.096706999999999</v>
       </c>
       <c r="X39" t="s">
         <v>30</v>
@@ -3322,11 +3338,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>5139</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="1">
         <v>43623</v>
       </c>
       <c r="C40" t="s">
@@ -3335,7 +3351,7 @@
       <c r="D40" t="s">
         <v>27</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="1">
         <v>43819</v>
       </c>
       <c r="G40" t="s">
@@ -3357,19 +3373,19 @@
         <v>0</v>
       </c>
       <c r="M40">
-        <v>.306373</v>
+        <v>0.30637300000000001</v>
       </c>
       <c r="N40">
-        <v>-.221432</v>
+        <v>-0.22143199999999999</v>
       </c>
       <c r="O40">
-        <v>.051492</v>
+        <v>5.1492000000000003E-2</v>
       </c>
       <c r="P40">
-        <v>5.619487</v>
+        <v>5.6194870000000003</v>
       </c>
       <c r="Q40">
-        <v>-1.475469</v>
+        <v>-1.4754689999999999</v>
       </c>
       <c r="R40">
         <v>129252256</v>
@@ -3387,7 +3403,7 @@
         <v>29</v>
       </c>
       <c r="W40">
-        <v>26.096707</v>
+        <v>26.096706999999999</v>
       </c>
       <c r="X40" t="s">
         <v>30</v>
@@ -3399,11 +3415,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>5139</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="1">
         <v>43623</v>
       </c>
       <c r="C41" t="s">
@@ -3412,7 +3428,7 @@
       <c r="D41" t="s">
         <v>27</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41" s="1">
         <v>43819</v>
       </c>
       <c r="G41" t="s">
@@ -3422,7 +3438,7 @@
         <v>25000</v>
       </c>
       <c r="I41">
-        <v>.45</v>
+        <v>0.45</v>
       </c>
       <c r="J41">
         <v>2.7</v>
@@ -3434,16 +3450,16 @@
         <v>0</v>
       </c>
       <c r="M41">
-        <v>.278741</v>
+        <v>0.27874100000000002</v>
       </c>
       <c r="N41">
-        <v>-.38187</v>
+        <v>-0.38186999999999999</v>
       </c>
       <c r="O41">
-        <v>.073357</v>
+        <v>7.3357000000000006E-2</v>
       </c>
       <c r="P41">
-        <v>7.194749</v>
+        <v>7.1947489999999998</v>
       </c>
       <c r="Q41">
         <v>-1.657861</v>
@@ -3464,7 +3480,7 @@
         <v>29</v>
       </c>
       <c r="W41">
-        <v>26.096707</v>
+        <v>26.096706999999999</v>
       </c>
       <c r="X41" t="s">
         <v>30</v>
@@ -3476,11 +3492,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>5139</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="1">
         <v>43626</v>
       </c>
       <c r="C42" t="s">
@@ -3489,7 +3505,7 @@
       <c r="D42" t="s">
         <v>27</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42" s="1">
         <v>43637</v>
       </c>
       <c r="G42" t="s">
@@ -3511,19 +3527,19 @@
         <v>0</v>
       </c>
       <c r="M42">
-        <v>1.123047</v>
+        <v>1.1230469999999999</v>
       </c>
       <c r="N42">
-        <v>.779423</v>
+        <v>0.77942299999999998</v>
       </c>
       <c r="O42">
-        <v>.060972</v>
+        <v>6.0971999999999998E-2</v>
       </c>
       <c r="P42">
-        <v>1.300221</v>
+        <v>1.3002210000000001</v>
       </c>
       <c r="Q42">
-        <v>-25.8466</v>
+        <v>-25.846599999999999</v>
       </c>
       <c r="R42">
         <v>129252235</v>
@@ -3541,7 +3557,7 @@
         <v>29</v>
       </c>
       <c r="W42">
-        <v>25.648673</v>
+        <v>25.648672999999999</v>
       </c>
       <c r="X42" t="s">
         <v>30</v>
@@ -3553,11 +3569,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>5139</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="1">
         <v>43626</v>
       </c>
       <c r="C43" t="s">
@@ -3566,7 +3582,7 @@
       <c r="D43" t="s">
         <v>27</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="1">
         <v>43637</v>
       </c>
       <c r="G43" t="s">
@@ -3588,19 +3604,19 @@
         <v>0</v>
       </c>
       <c r="M43">
-        <v>.229552</v>
+        <v>0.22955200000000001</v>
       </c>
       <c r="N43">
-        <v>.785686</v>
+        <v>0.785686</v>
       </c>
       <c r="O43">
-        <v>.365812</v>
+        <v>0.36581200000000003</v>
       </c>
       <c r="P43">
-        <v>1.279387</v>
+        <v>1.2793870000000001</v>
       </c>
       <c r="Q43">
-        <v>-6.8493</v>
+        <v>-6.8493000000000004</v>
       </c>
       <c r="R43">
         <v>129252236</v>
@@ -3618,7 +3634,7 @@
         <v>29</v>
       </c>
       <c r="W43">
-        <v>25.648673</v>
+        <v>25.648672999999999</v>
       </c>
       <c r="X43" t="s">
         <v>30</v>
@@ -3630,11 +3646,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>5139</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="1">
         <v>43626</v>
       </c>
       <c r="C44" t="s">
@@ -3643,7 +3659,7 @@
       <c r="D44" t="s">
         <v>27</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="1">
         <v>43637</v>
       </c>
       <c r="G44" t="s">
@@ -3656,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <v>.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -3665,19 +3681,19 @@
         <v>0</v>
       </c>
       <c r="M44">
-        <v>.82493</v>
+        <v>0.82493000000000005</v>
       </c>
       <c r="N44">
-        <v>.152696</v>
+        <v>0.152696</v>
       </c>
       <c r="O44">
-        <v>.063956</v>
+        <v>6.3955999999999999E-2</v>
       </c>
       <c r="P44">
         <v>1.052198</v>
       </c>
       <c r="Q44">
-        <v>-14.49514</v>
+        <v>-14.495139999999999</v>
       </c>
       <c r="R44">
         <v>129298148</v>
@@ -3695,7 +3711,7 @@
         <v>29</v>
       </c>
       <c r="W44">
-        <v>25.648673</v>
+        <v>25.648672999999999</v>
       </c>
       <c r="X44" t="s">
         <v>30</v>
@@ -3707,11 +3723,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>5139</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" s="1">
         <v>43626</v>
       </c>
       <c r="C45" t="s">
@@ -3720,7 +3736,7 @@
       <c r="D45" t="s">
         <v>27</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="1">
         <v>43637</v>
       </c>
       <c r="G45" t="s">
@@ -3733,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="J45">
-        <v>.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="K45">
         <v>0</v>
@@ -3742,19 +3758,19 @@
         <v>0</v>
       </c>
       <c r="M45">
-        <v>.767551</v>
+        <v>0.76755099999999998</v>
       </c>
       <c r="N45">
-        <v>-.146526</v>
+        <v>-0.14652599999999999</v>
       </c>
       <c r="O45">
-        <v>.066885</v>
+        <v>6.6885E-2</v>
       </c>
       <c r="P45">
-        <v>1.023449</v>
+        <v>1.0234490000000001</v>
       </c>
       <c r="Q45">
-        <v>-12.94568</v>
+        <v>-12.945679999999999</v>
       </c>
       <c r="R45">
         <v>129252238</v>
@@ -3772,7 +3788,7 @@
         <v>29</v>
       </c>
       <c r="W45">
-        <v>25.648673</v>
+        <v>25.648672999999999</v>
       </c>
       <c r="X45" t="s">
         <v>30</v>
@@ -3784,11 +3800,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>5139</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46" s="1">
         <v>43626</v>
       </c>
       <c r="C46" t="s">
@@ -3797,7 +3813,7 @@
       <c r="D46" t="s">
         <v>27</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46" s="1">
         <v>43637</v>
       </c>
       <c r="G46" t="s">
@@ -3810,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>.8</v>
+        <v>0.8</v>
       </c>
       <c r="K46">
         <v>0</v>
@@ -3819,16 +3835,16 @@
         <v>0</v>
       </c>
       <c r="M46">
-        <v>.385008</v>
+        <v>0.38500800000000002</v>
       </c>
       <c r="N46">
-        <v>-.337747</v>
+        <v>-0.33774700000000002</v>
       </c>
       <c r="O46">
-        <v>.21229</v>
+        <v>0.21229000000000001</v>
       </c>
       <c r="P46">
-        <v>1.62759</v>
+        <v>1.6275900000000001</v>
       </c>
       <c r="Q46">
         <v>-10.19675</v>
@@ -3849,7 +3865,7 @@
         <v>29</v>
       </c>
       <c r="W46">
-        <v>25.648673</v>
+        <v>25.648672999999999</v>
       </c>
       <c r="X46" t="s">
         <v>30</v>
@@ -3861,11 +3877,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>5139</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47" s="1">
         <v>43626</v>
       </c>
       <c r="C47" t="s">
@@ -3874,7 +3890,7 @@
       <c r="D47" t="s">
         <v>27</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47" s="1">
         <v>43637</v>
       </c>
       <c r="G47" t="s">
@@ -3896,19 +3912,19 @@
         <v>0</v>
       </c>
       <c r="M47">
-        <v>.523068</v>
+        <v>0.52306799999999998</v>
       </c>
       <c r="N47">
-        <v>-.952843</v>
+        <v>-0.952843</v>
       </c>
       <c r="O47">
-        <v>.041722</v>
+        <v>4.1722000000000002E-2</v>
       </c>
       <c r="P47">
-        <v>.406991</v>
+        <v>0.40699099999999999</v>
       </c>
       <c r="Q47">
-        <v>-3.079832</v>
+        <v>-3.0798320000000001</v>
       </c>
       <c r="R47">
         <v>129298149</v>
@@ -3926,7 +3942,7 @@
         <v>29</v>
       </c>
       <c r="W47">
-        <v>25.648673</v>
+        <v>25.648672999999999</v>
       </c>
       <c r="X47" t="s">
         <v>30</v>
@@ -3938,11 +3954,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>5139</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48" s="1">
         <v>43626</v>
       </c>
       <c r="C48" t="s">
@@ -3951,7 +3967,7 @@
       <c r="D48" t="s">
         <v>27</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E48" s="1">
         <v>43665</v>
       </c>
       <c r="G48" t="s">
@@ -3961,7 +3977,7 @@
         <v>22500</v>
       </c>
       <c r="I48">
-        <v>2.05</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="J48">
         <v>5.7</v>
@@ -3973,19 +3989,19 @@
         <v>0</v>
       </c>
       <c r="M48">
-        <v>.59595</v>
+        <v>0.59594999999999998</v>
       </c>
       <c r="N48">
-        <v>.779017</v>
+        <v>0.77901699999999996</v>
       </c>
       <c r="O48">
-        <v>.058517</v>
+        <v>5.8517E-2</v>
       </c>
       <c r="P48">
-        <v>2.467404</v>
+        <v>2.4674040000000002</v>
       </c>
       <c r="Q48">
-        <v>-7.275377</v>
+        <v>-7.2753769999999998</v>
       </c>
       <c r="R48">
         <v>129252241</v>
@@ -4015,11 +4031,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>5139</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49" s="1">
         <v>43626</v>
       </c>
       <c r="C49" t="s">
@@ -4028,7 +4044,7 @@
       <c r="D49" t="s">
         <v>27</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E49" s="1">
         <v>43665</v>
       </c>
       <c r="G49" t="s">
@@ -4038,10 +4054,10 @@
         <v>25000</v>
       </c>
       <c r="I49">
-        <v>.45</v>
+        <v>0.45</v>
       </c>
       <c r="J49">
-        <v>2.05</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -4050,19 +4066,19 @@
         <v>0</v>
       </c>
       <c r="M49">
-        <v>.260297</v>
+        <v>0.260297</v>
       </c>
       <c r="N49">
-        <v>.640177</v>
+        <v>0.640177</v>
       </c>
       <c r="O49">
-        <v>.16974</v>
+        <v>0.16974</v>
       </c>
       <c r="P49">
-        <v>3.125876</v>
+        <v>3.1258759999999999</v>
       </c>
       <c r="Q49">
-        <v>-4.179679</v>
+        <v>-4.1796790000000001</v>
       </c>
       <c r="R49">
         <v>129252242</v>
@@ -4092,11 +4108,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>5139</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B50" s="1">
         <v>43626</v>
       </c>
       <c r="C50" t="s">
@@ -4105,7 +4121,7 @@
       <c r="D50" t="s">
         <v>27</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E50" s="1">
         <v>43665</v>
       </c>
       <c r="G50" t="s">
@@ -4118,7 +4134,7 @@
         <v>0</v>
       </c>
       <c r="J50">
-        <v>.5</v>
+        <v>0.5</v>
       </c>
       <c r="K50">
         <v>0</v>
@@ -4127,13 +4143,13 @@
         <v>0</v>
       </c>
       <c r="M50">
-        <v>.42182</v>
+        <v>0.42181999999999997</v>
       </c>
       <c r="N50">
-        <v>.145462</v>
+        <v>0.14546200000000001</v>
       </c>
       <c r="O50">
-        <v>.06431</v>
+        <v>6.4310000000000006E-2</v>
       </c>
       <c r="P50">
         <v>1.916145</v>
@@ -4169,11 +4185,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>5139</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B51" s="1">
         <v>43626</v>
       </c>
       <c r="C51" t="s">
@@ -4182,7 +4198,7 @@
       <c r="D51" t="s">
         <v>27</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E51" s="1">
         <v>43665</v>
       </c>
       <c r="G51" t="s">
@@ -4195,7 +4211,7 @@
         <v>0</v>
       </c>
       <c r="J51">
-        <v>.65</v>
+        <v>0.65</v>
       </c>
       <c r="K51">
         <v>0</v>
@@ -4204,19 +4220,19 @@
         <v>0</v>
       </c>
       <c r="M51">
-        <v>.436701</v>
+        <v>0.43670100000000001</v>
       </c>
       <c r="N51">
-        <v>-.157963</v>
+        <v>-0.15796299999999999</v>
       </c>
       <c r="O51">
-        <v>.065698</v>
+        <v>6.5698000000000006E-2</v>
       </c>
       <c r="P51">
         <v>2.027536</v>
       </c>
       <c r="Q51">
-        <v>-4.039862</v>
+        <v>-4.0398620000000003</v>
       </c>
       <c r="R51">
         <v>129252244</v>
@@ -4246,11 +4262,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>5139</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B52" s="1">
         <v>43626</v>
       </c>
       <c r="C52" t="s">
@@ -4259,7 +4275,7 @@
       <c r="D52" t="s">
         <v>27</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E52" s="1">
         <v>43665</v>
       </c>
       <c r="G52" t="s">
@@ -4269,10 +4285,10 @@
         <v>25000</v>
       </c>
       <c r="I52">
-        <v>.1</v>
+        <v>0.1</v>
       </c>
       <c r="J52">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="K52">
         <v>0</v>
@@ -4281,16 +4297,16 @@
         <v>0</v>
       </c>
       <c r="M52">
-        <v>.281885</v>
+        <v>0.281885</v>
       </c>
       <c r="N52">
-        <v>-.365793</v>
+        <v>-0.36579299999999998</v>
       </c>
       <c r="O52">
-        <v>.159206</v>
+        <v>0.15920599999999999</v>
       </c>
       <c r="P52">
-        <v>3.153172</v>
+        <v>3.1531720000000001</v>
       </c>
       <c r="Q52">
         <v>-3.941665</v>
@@ -4323,11 +4339,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>5139</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B53" s="1">
         <v>43626</v>
       </c>
       <c r="C53" t="s">
@@ -4336,7 +4352,7 @@
       <c r="D53" t="s">
         <v>27</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E53" s="1">
         <v>43665</v>
       </c>
       <c r="G53" t="s">
@@ -4358,19 +4374,19 @@
         <v>0</v>
       </c>
       <c r="M53">
-        <v>.304964</v>
+        <v>0.30496400000000001</v>
       </c>
       <c r="N53">
-        <v>-.944001</v>
+        <v>-0.94400099999999998</v>
       </c>
       <c r="O53">
-        <v>.053484</v>
+        <v>5.3483999999999997E-2</v>
       </c>
       <c r="P53">
-        <v>.866676</v>
+        <v>0.866676</v>
       </c>
       <c r="Q53">
-        <v>-.94397</v>
+        <v>-0.94396999999999998</v>
       </c>
       <c r="R53">
         <v>129298151</v>
@@ -4400,11 +4416,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>5139</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B54" s="1">
         <v>43626</v>
       </c>
       <c r="C54" t="s">
@@ -4413,7 +4429,7 @@
       <c r="D54" t="s">
         <v>27</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E54" s="1">
         <v>43728</v>
       </c>
       <c r="G54" t="s">
@@ -4435,19 +4451,19 @@
         <v>0</v>
       </c>
       <c r="M54">
-        <v>.266961</v>
+        <v>0.266961</v>
       </c>
       <c r="N54">
-        <v>.847472</v>
+        <v>0.847472</v>
       </c>
       <c r="O54">
-        <v>.063737</v>
+        <v>6.3737000000000002E-2</v>
       </c>
       <c r="P54">
-        <v>3.147711</v>
+        <v>3.1477110000000001</v>
       </c>
       <c r="Q54">
-        <v>-1.932098</v>
+        <v>-1.9320980000000001</v>
       </c>
       <c r="R54">
         <v>129252247</v>
@@ -4465,7 +4481,7 @@
         <v>29</v>
       </c>
       <c r="W54">
-        <v>25.798898</v>
+        <v>25.798898000000001</v>
       </c>
       <c r="X54" t="s">
         <v>30</v>
@@ -4477,11 +4493,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>5139</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B55" s="1">
         <v>43626</v>
       </c>
       <c r="C55" t="s">
@@ -4490,7 +4506,7 @@
       <c r="D55" t="s">
         <v>27</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E55" s="1">
         <v>43728</v>
       </c>
       <c r="G55" t="s">
@@ -4500,7 +4516,7 @@
         <v>25000</v>
       </c>
       <c r="I55">
-        <v>.9</v>
+        <v>0.9</v>
       </c>
       <c r="J55">
         <v>2.95</v>
@@ -4512,19 +4528,19 @@
         <v>0</v>
       </c>
       <c r="M55">
-        <v>.281166</v>
+        <v>0.28116600000000003</v>
       </c>
       <c r="N55">
-        <v>.610114</v>
+        <v>0.61011400000000005</v>
       </c>
       <c r="O55">
-        <v>.099722</v>
+        <v>9.9722000000000005E-2</v>
       </c>
       <c r="P55">
-        <v>5.188496</v>
+        <v>5.1884959999999998</v>
       </c>
       <c r="Q55">
-        <v>-2.933272</v>
+        <v>-2.9332720000000001</v>
       </c>
       <c r="R55">
         <v>129252248</v>
@@ -4542,7 +4558,7 @@
         <v>29</v>
       </c>
       <c r="W55">
-        <v>25.798898</v>
+        <v>25.798898000000001</v>
       </c>
       <c r="X55" t="s">
         <v>30</v>
@@ -4554,11 +4570,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>5139</v>
       </c>
-      <c r="B56" s="4">
+      <c r="B56" s="1">
         <v>43626</v>
       </c>
       <c r="C56" t="s">
@@ -4567,7 +4583,7 @@
       <c r="D56" t="s">
         <v>27</v>
       </c>
-      <c r="E56" s="4">
+      <c r="E56" s="1">
         <v>43728</v>
       </c>
       <c r="G56" t="s">
@@ -4580,7 +4596,7 @@
         <v>0</v>
       </c>
       <c r="J56">
-        <v>.5</v>
+        <v>0.5</v>
       </c>
       <c r="K56">
         <v>0</v>
@@ -4589,19 +4605,19 @@
         <v>0</v>
       </c>
       <c r="M56">
-        <v>.256367</v>
+        <v>0.25636700000000001</v>
       </c>
       <c r="N56">
-        <v>.147397</v>
+        <v>0.147397</v>
       </c>
       <c r="O56">
-        <v>.066012</v>
+        <v>6.6012000000000001E-2</v>
       </c>
       <c r="P56">
-        <v>3.125879</v>
+        <v>3.1258789999999999</v>
       </c>
       <c r="Q56">
-        <v>-1.519399</v>
+        <v>-1.5193989999999999</v>
       </c>
       <c r="R56">
         <v>129298152</v>
@@ -4619,7 +4635,7 @@
         <v>29</v>
       </c>
       <c r="W56">
-        <v>25.798898</v>
+        <v>25.798898000000001</v>
       </c>
       <c r="X56" t="s">
         <v>30</v>
@@ -4631,11 +4647,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>5139</v>
       </c>
-      <c r="B57" s="4">
+      <c r="B57" s="1">
         <v>43626</v>
       </c>
       <c r="C57" t="s">
@@ -4644,7 +4660,7 @@
       <c r="D57" t="s">
         <v>27</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E57" s="1">
         <v>43728</v>
       </c>
       <c r="G57" t="s">
@@ -4666,16 +4682,16 @@
         <v>0</v>
       </c>
       <c r="M57">
-        <v>.33203</v>
+        <v>0.33202999999999999</v>
       </c>
       <c r="N57">
-        <v>-.193449</v>
+        <v>-0.19344900000000001</v>
       </c>
       <c r="O57">
-        <v>.060938</v>
+        <v>6.0937999999999999E-2</v>
       </c>
       <c r="P57">
-        <v>3.723135</v>
+        <v>3.7231350000000001</v>
       </c>
       <c r="Q57">
         <v>-2.094446</v>
@@ -4696,7 +4712,7 @@
         <v>29</v>
       </c>
       <c r="W57">
-        <v>25.798898</v>
+        <v>25.798898000000001</v>
       </c>
       <c r="X57" t="s">
         <v>30</v>
@@ -4708,11 +4724,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>5139</v>
       </c>
-      <c r="B58" s="4">
+      <c r="B58" s="1">
         <v>43626</v>
       </c>
       <c r="C58" t="s">
@@ -4721,7 +4737,7 @@
       <c r="D58" t="s">
         <v>27</v>
       </c>
-      <c r="E58" s="4">
+      <c r="E58" s="1">
         <v>43728</v>
       </c>
       <c r="G58" t="s">
@@ -4731,7 +4747,7 @@
         <v>25000</v>
       </c>
       <c r="I58">
-        <v>.45</v>
+        <v>0.45</v>
       </c>
       <c r="J58">
         <v>1.9</v>
@@ -4743,19 +4759,19 @@
         <v>0</v>
       </c>
       <c r="M58">
-        <v>.287857</v>
+        <v>0.28785699999999997</v>
       </c>
       <c r="N58">
-        <v>-.391133</v>
+        <v>-0.39113300000000001</v>
       </c>
       <c r="O58">
-        <v>.099065</v>
+        <v>9.9065E-2</v>
       </c>
       <c r="P58">
         <v>5.198969</v>
       </c>
       <c r="Q58">
-        <v>-2.45305</v>
+        <v>-2.4530500000000002</v>
       </c>
       <c r="R58">
         <v>129252251</v>
@@ -4773,7 +4789,7 @@
         <v>29</v>
       </c>
       <c r="W58">
-        <v>25.798898</v>
+        <v>25.798898000000001</v>
       </c>
       <c r="X58" t="s">
         <v>30</v>
@@ -4785,11 +4801,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>5139</v>
       </c>
-      <c r="B59" s="4">
+      <c r="B59" s="1">
         <v>43626</v>
       </c>
       <c r="C59" t="s">
@@ -4798,7 +4814,7 @@
       <c r="D59" t="s">
         <v>27</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E59" s="1">
         <v>43728</v>
       </c>
       <c r="G59" t="s">
@@ -4820,19 +4836,19 @@
         <v>0</v>
       </c>
       <c r="M59">
-        <v>.258243</v>
+        <v>0.258243</v>
       </c>
       <c r="N59">
-        <v>-.869838</v>
+        <v>-0.869838</v>
       </c>
       <c r="O59">
-        <v>.072524</v>
+        <v>7.2524000000000005E-2</v>
       </c>
       <c r="P59">
-        <v>2.730208</v>
+        <v>2.7302080000000002</v>
       </c>
       <c r="Q59">
-        <v>-.96919</v>
+        <v>-0.96919</v>
       </c>
       <c r="R59">
         <v>129298153</v>
@@ -4850,7 +4866,7 @@
         <v>29</v>
       </c>
       <c r="W59">
-        <v>25.798898</v>
+        <v>25.798898000000001</v>
       </c>
       <c r="X59" t="s">
         <v>30</v>
@@ -4862,11 +4878,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>5139</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B60" s="1">
         <v>43626</v>
       </c>
       <c r="C60" t="s">
@@ -4875,7 +4891,7 @@
       <c r="D60" t="s">
         <v>27</v>
       </c>
-      <c r="E60" s="4">
+      <c r="E60" s="1">
         <v>43819</v>
       </c>
       <c r="G60" t="s">
@@ -4885,7 +4901,7 @@
         <v>22500</v>
       </c>
       <c r="I60">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="J60">
         <v>5.5</v>
@@ -4897,19 +4913,19 @@
         <v>0</v>
       </c>
       <c r="M60">
-        <v>.233575</v>
+        <v>0.233575</v>
       </c>
       <c r="N60">
-        <v>.818264</v>
+        <v>0.81826399999999999</v>
       </c>
       <c r="O60">
-        <v>.059496</v>
+        <v>5.9496E-2</v>
       </c>
       <c r="P60">
-        <v>4.86072</v>
+        <v>4.8607199999999997</v>
       </c>
       <c r="Q60">
-        <v>-1.45846</v>
+        <v>-1.4584600000000001</v>
       </c>
       <c r="R60">
         <v>129252253</v>
@@ -4939,11 +4955,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>5139</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B61" s="1">
         <v>43626</v>
       </c>
       <c r="C61" t="s">
@@ -4952,7 +4968,7 @@
       <c r="D61" t="s">
         <v>27</v>
       </c>
-      <c r="E61" s="4">
+      <c r="E61" s="1">
         <v>43819</v>
       </c>
       <c r="G61" t="s">
@@ -4962,7 +4978,7 @@
         <v>25000</v>
       </c>
       <c r="I61">
-        <v>.95</v>
+        <v>0.95</v>
       </c>
       <c r="J61">
         <v>3.7</v>
@@ -4974,19 +4990,19 @@
         <v>0</v>
       </c>
       <c r="M61">
-        <v>.250509</v>
+        <v>0.25050899999999998</v>
       </c>
       <c r="N61">
-        <v>.612614</v>
+        <v>0.61261399999999999</v>
       </c>
       <c r="O61">
-        <v>.081213</v>
+        <v>8.1212999999999994E-2</v>
       </c>
       <c r="P61">
-        <v>7.123698</v>
+        <v>7.1236980000000001</v>
       </c>
       <c r="Q61">
-        <v>-1.986967</v>
+        <v>-1.9869669999999999</v>
       </c>
       <c r="R61">
         <v>129252254</v>
@@ -5016,11 +5032,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>5139</v>
       </c>
-      <c r="B62" s="4">
+      <c r="B62" s="1">
         <v>43626</v>
       </c>
       <c r="C62" t="s">
@@ -5029,7 +5045,7 @@
       <c r="D62" t="s">
         <v>27</v>
       </c>
-      <c r="E62" s="4">
+      <c r="E62" s="1">
         <v>43819</v>
       </c>
       <c r="G62" t="s">
@@ -5051,16 +5067,16 @@
         <v>0</v>
       </c>
       <c r="M62">
-        <v>.279324</v>
+        <v>0.27932400000000002</v>
       </c>
       <c r="N62">
-        <v>.268195</v>
+        <v>0.26819500000000002</v>
       </c>
       <c r="O62">
-        <v>.062927</v>
+        <v>6.2926999999999997E-2</v>
       </c>
       <c r="P62">
-        <v>6.14874</v>
+        <v>6.1487400000000001</v>
       </c>
       <c r="Q62">
         <v>-1.761919</v>
@@ -5093,11 +5109,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>5139</v>
       </c>
-      <c r="B63" s="4">
+      <c r="B63" s="1">
         <v>43626</v>
       </c>
       <c r="C63" t="s">
@@ -5106,7 +5122,7 @@
       <c r="D63" t="s">
         <v>27</v>
       </c>
-      <c r="E63" s="4">
+      <c r="E63" s="1">
         <v>43819</v>
       </c>
       <c r="G63" t="s">
@@ -5128,19 +5144,19 @@
         <v>0</v>
       </c>
       <c r="M63">
-        <v>.311155</v>
+        <v>0.31115500000000001</v>
       </c>
       <c r="N63">
-        <v>-.231046</v>
+        <v>-0.231046</v>
       </c>
       <c r="O63">
-        <v>.052674</v>
+        <v>5.2673999999999999E-2</v>
       </c>
       <c r="P63">
-        <v>5.673985</v>
+        <v>5.6739850000000001</v>
       </c>
       <c r="Q63">
-        <v>-1.535869</v>
+        <v>-1.5358689999999999</v>
       </c>
       <c r="R63">
         <v>129252256</v>
@@ -5170,11 +5186,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>5139</v>
       </c>
-      <c r="B64" s="4">
+      <c r="B64" s="1">
         <v>43626</v>
       </c>
       <c r="C64" t="s">
@@ -5183,7 +5199,7 @@
       <c r="D64" t="s">
         <v>27</v>
       </c>
-      <c r="E64" s="4">
+      <c r="E64" s="1">
         <v>43819</v>
       </c>
       <c r="G64" t="s">
@@ -5193,7 +5209,7 @@
         <v>25000</v>
       </c>
       <c r="I64">
-        <v>.65</v>
+        <v>0.65</v>
       </c>
       <c r="J64">
         <v>2.75</v>
@@ -5205,16 +5221,16 @@
         <v>0</v>
       </c>
       <c r="M64">
-        <v>.28962</v>
+        <v>0.28961999999999999</v>
       </c>
       <c r="N64">
-        <v>-.394446</v>
+        <v>-0.39444600000000002</v>
       </c>
       <c r="O64">
-        <v>.072281</v>
+        <v>7.2280999999999998E-2</v>
       </c>
       <c r="P64">
-        <v>7.161513</v>
+        <v>7.1615130000000002</v>
       </c>
       <c r="Q64">
         <v>-1.742435</v>
@@ -5247,11 +5263,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>5139</v>
       </c>
-      <c r="B65" s="4">
+      <c r="B65" s="1">
         <v>43626</v>
       </c>
       <c r="C65" t="s">
@@ -5260,7 +5276,7 @@
       <c r="D65" t="s">
         <v>27</v>
       </c>
-      <c r="E65" s="4">
+      <c r="E65" s="1">
         <v>43819</v>
       </c>
       <c r="G65" t="s">
@@ -5282,19 +5298,19 @@
         <v>0</v>
       </c>
       <c r="M65">
-        <v>.231786</v>
+        <v>0.23178599999999999</v>
       </c>
       <c r="N65">
-        <v>-.810897</v>
+        <v>-0.81089699999999998</v>
       </c>
       <c r="O65">
-        <v>.075874</v>
+        <v>7.5873999999999997E-2</v>
       </c>
       <c r="P65">
-        <v>4.844159</v>
+        <v>4.8441590000000003</v>
       </c>
       <c r="Q65">
-        <v>-.780381</v>
+        <v>-0.78038099999999999</v>
       </c>
       <c r="R65">
         <v>129298155</v>
@@ -5325,6 +5341,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
